--- a/Testing/resources/TestRunManager.xlsx
+++ b/Testing/resources/TestRunManager.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case 1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TestStartTime</t>
+  </si>
+  <si>
+    <t>TestEndTime</t>
   </si>
 </sst>
 </file>
@@ -399,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,10 +420,13 @@
     <col min="1" max="1" width="7.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -424,8 +436,17 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -443,6 +464,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/resources/TestRunManager.xlsx
+++ b/Testing/resources/TestRunManager.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="7635" windowWidth="13935" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
-    <sheet name="TestRunManager" sheetId="1" r:id="rId1"/>
+    <sheet name="TestRunManager" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test Case 1</t>
   </si>
@@ -38,12 +38,25 @@
   </si>
   <si>
     <t>TestEndTime</t>
+  </si>
+  <si>
+    <t>12-01-2021 22:54:50</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>12-01-2021 22:59:55</t>
+  </si>
+  <si>
+    <t>12-01-2021 22:59:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -106,20 +119,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -128,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -287,7 +300,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +353,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +389,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -408,22 +421,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="C1" xSplit="2"/>
+      <selection activeCell="D2" pane="topRight" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="4" width="7.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="58.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="34.140625" collapsed="true"/>
+    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -456,13 +469,22 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2" type="list">
       <formula1>$E$2:$E$3</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>